--- a/productModel.xlsx
+++ b/productModel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23900" windowHeight="10360"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="27620" windowHeight="17080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/productModel.xlsx
+++ b/productModel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="27620" windowHeight="17080"/>
+    <workbookView xWindow="5980" yWindow="460" windowWidth="27620" windowHeight="17080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -824,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1371,7 +1371,7 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39305555555555599" right="0.39305555555555599" top="0.39305555555555599" bottom="0.39305555555555599" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.39" right="0.39" top="0" bottom="0.39" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait"/>
 </worksheet>
 </file>
--- a/productModel.xlsx
+++ b/productModel.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$50</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>北京二维时代印刷科技生产加工单</t>
   </si>
@@ -133,9 +133,6 @@
     <t>加放印数</t>
   </si>
   <si>
-    <t>实际用料</t>
-  </si>
-  <si>
     <t>生产数量</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>模切印数</t>
   </si>
   <si>
-    <t>模切数量</t>
-  </si>
-  <si>
     <t>模切数量（个）</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>丝印模数</t>
   </si>
   <si>
-    <t>生产米数</t>
-  </si>
-  <si>
     <t>丝印数量（个）</t>
   </si>
   <si>
@@ -193,9 +184,6 @@
     <t>分切1</t>
   </si>
   <si>
-    <t>分切2</t>
-  </si>
-  <si>
     <t>实际出货数量</t>
   </si>
   <si>
@@ -208,9 +196,6 @@
     <t>不良品数量</t>
   </si>
   <si>
-    <t>质检统计</t>
-  </si>
-  <si>
     <t>订单问题总结</t>
   </si>
   <si>
@@ -223,9 +208,6 @@
     <t>覆膜问题</t>
   </si>
   <si>
-    <t>丝网问题</t>
-  </si>
-  <si>
     <t>模切问题</t>
   </si>
   <si>
@@ -245,9 +227,6 @@
   </si>
   <si>
     <t>退料数量</t>
-  </si>
-  <si>
-    <t>退料人</t>
   </si>
   <si>
     <t>库管确认</t>
@@ -264,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -330,8 +309,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +379,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,111 +439,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -500,12 +479,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -518,25 +533,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,133 +599,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,17 +747,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,17 +780,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,15 +835,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -864,152 +843,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,9 +998,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,17 +1013,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,9 +1025,6 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1094,6 +1061,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,9 +1080,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1461,820 +1428,726 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:H18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.0192307692308" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8173076923077" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.2980769230769" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="20.5096153846154" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="46" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="3" customHeight="1" spans="1:8">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="31"/>
+    <row r="5" ht="3" customHeight="1" spans="1:7">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" ht="21" customHeight="1" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:7">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:7">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:7">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="34" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:7">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-    </row>
-    <row r="11" ht="25" customHeight="1" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:7">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:7">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" ht="23" customHeight="1" spans="1:8">
-      <c r="A13" s="7" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" ht="23" customHeight="1" spans="1:7">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="7" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14" ht="25" customHeight="1" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:7">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="7" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-    </row>
-    <row r="15" ht="25" customHeight="1" spans="1:8">
-      <c r="A15" s="7" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" ht="25" customHeight="1" spans="1:7">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="7" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:8">
-      <c r="A16" s="7" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="7" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" ht="22" customHeight="1" spans="1:8">
-      <c r="A17" s="7" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" ht="22" customHeight="1" spans="1:7">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" ht="21" customHeight="1" spans="1:8">
-      <c r="A18" s="7" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" ht="21" customHeight="1" spans="1:7">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" ht="6" customHeight="1" spans="1:8">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="16" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" ht="6" customHeight="1" spans="1:7">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" ht="3" customHeight="1" spans="1:8">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="18" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" ht="3" customHeight="1" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" ht="23" customHeight="1" spans="1:7">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" ht="22" customHeight="1" spans="1:7">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" ht="23" customHeight="1" spans="1:8">
-      <c r="A23" s="19"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" ht="22" customHeight="1" spans="1:8">
-      <c r="A24" s="19"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="18" t="s">
+      <c r="B25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="1:7">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" ht="19" customHeight="1" spans="1:7">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="1:8">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" ht="19" customHeight="1" spans="1:8">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="F28" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="1:7">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" ht="21" customHeight="1" spans="1:7">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="26" t="s">
+      <c r="B31" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" ht="20" customHeight="1" spans="1:8">
-      <c r="A29" s="19"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" ht="21" customHeight="1" spans="1:8">
-      <c r="A30" s="19"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="18" t="s">
+      <c r="C31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="F31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:7">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" ht="19" customHeight="1" spans="1:7">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
+      <c r="A34" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="B34" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="26" t="s">
+      <c r="C34" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:8">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" ht="19" customHeight="1" spans="1:8">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="18" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="F34" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="34"/>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="1:7">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+    </row>
+    <row r="36" ht="18" customHeight="1" spans="1:7">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" ht="3" customHeight="1" spans="1:7">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" ht="3" customHeight="1" spans="1:7">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" ht="27" customHeight="1" spans="1:7">
+      <c r="A40" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="36" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="1:8">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
-    </row>
-    <row r="36" ht="18" customHeight="1" spans="1:8">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
-    </row>
-    <row r="37" ht="3" customHeight="1" spans="1:8">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="16" t="s">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="1:7">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" ht="27" customHeight="1" spans="1:7">
+      <c r="A42" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" ht="3" customHeight="1" spans="1:8">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-    </row>
-    <row r="40" ht="27" customHeight="1" spans="1:8">
-      <c r="A40" s="21" t="s">
+      <c r="B42" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22" t="s">
+      <c r="C42" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D42" s="14"/>
+      <c r="E42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="26" t="s">
+      <c r="F42" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="1:8">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" ht="27" customHeight="1" spans="1:8">
-      <c r="A42" s="18" t="s">
+      <c r="G42" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="18" t="s">
+    </row>
+    <row r="43" ht="27" customHeight="1" spans="1:7">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+    </row>
+    <row r="44" ht="2" customHeight="1" spans="1:7">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" ht="2" customHeight="1" spans="1:7">
+      <c r="A46" s="13"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
+      <c r="A47" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="B47" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="26" t="s">
+      <c r="C47" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="26" t="s">
+      <c r="F47" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" ht="27" customHeight="1" spans="1:8">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-    </row>
-    <row r="44" ht="2" customHeight="1" spans="1:8">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="16" t="s">
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" ht="25" customHeight="1" spans="1:8">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" ht="3" customHeight="1" spans="4:4">
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" ht="26" customHeight="1" spans="1:7">
+      <c r="A50" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-    </row>
-    <row r="46" ht="2" customHeight="1" spans="1:8">
-      <c r="A46" s="17"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H47" s="26"/>
-    </row>
-    <row r="48" ht="25" customHeight="1" spans="1:9">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" ht="3" customHeight="1" spans="4:5">
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" ht="26" customHeight="1" spans="1:8">
-      <c r="A50" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:8">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:8">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:8">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:8">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:7">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="56">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A6:G6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="E13:G13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A38:G38"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="E40:G40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.393055555555556" right="0.393055555555556" top="0.393055555555556" bottom="0.393055555555556" header="0.511805555555556" footer="0.511805555555556"/>
